--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK5"/>
+  <dimension ref="A1:EK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,24 @@
           <t>ㅤ</t>
         </is>
       </c>
+      <c r="EK5" t="n">
+        <v>6355537305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6355537305</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Фотима</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user_info.xlsx
+++ b/user_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK6"/>
+  <dimension ref="A1:EK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,34 +456,34 @@
         </is>
       </c>
       <c r="EK2" t="n">
-        <v>5589013665</v>
+        <v>1004403881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5589013665</v>
+        <v>1004403881</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>piimatalabasi_2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>오조드벡 에르나자로프</t>
+          <t>Jakhongir</t>
         </is>
       </c>
       <c r="EK3" t="n">
-        <v>5625816750</v>
+        <v>5474825034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5625816750</v>
+        <v>5474825034</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ozodbek_Ernazarov</t>
+          <t>piimatalabasi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -492,37 +492,73 @@
         </is>
       </c>
       <c r="EK4" t="n">
-        <v>6156202732</v>
+        <v>5589013665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6156202732</v>
+        <v>5589013665</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vzvzvzvzvzvcvz</t>
+          <t>piimatalabasi_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㅤ</t>
+          <t>오조드벡 에르나자로프</t>
         </is>
       </c>
       <c r="EK5" t="n">
-        <v>6355537305</v>
+        <v>5625816750</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>5625816750</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ozodbek_Ernazarov</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ozodbek Ernazarov</t>
+        </is>
+      </c>
+      <c r="EK6" t="n">
+        <v>6156202732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6156202732</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>vzvzvzvzvzvcvz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ㅤ</t>
+        </is>
+      </c>
+      <c r="EK7" t="n">
         <v>6355537305</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6355537305</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Фотима</t>
         </is>
